--- a/data/copas_mr.xlsx
+++ b/data/copas_mr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\GitHub\mr_league_2024\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\GitHub\mr_league_dashboard_2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="DataFrame" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="62">
   <si>
     <t>GOL</t>
   </si>
@@ -138,12 +138,6 @@
     <t>Lucas Marques</t>
   </si>
   <si>
-    <t>Nino</t>
-  </si>
-  <si>
-    <t>Lotta</t>
-  </si>
-  <si>
     <t>Feitosa</t>
   </si>
   <si>
@@ -153,19 +147,70 @@
     <t>BRANCO</t>
   </si>
   <si>
-    <t>Paulo Rafael</t>
-  </si>
-  <si>
     <t>Diego Maradona</t>
   </si>
   <si>
-    <t>Glerme</t>
+    <t>Marcello</t>
   </si>
   <si>
-    <t>João Victor</t>
+    <t>Deco</t>
   </si>
   <si>
-    <t>Marcello</t>
+    <t>PRETO</t>
+  </si>
+  <si>
+    <t>João Rodrigo</t>
+  </si>
+  <si>
+    <t>Peu</t>
+  </si>
+  <si>
+    <t>João Wanderley</t>
+  </si>
+  <si>
+    <t>AMARELO</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Xande</t>
+  </si>
+  <si>
+    <t>Emanuel</t>
+  </si>
+  <si>
+    <t>Dolfo</t>
+  </si>
+  <si>
+    <t>Hugo GK</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Vitão</t>
+  </si>
+  <si>
+    <t>Rodolpho</t>
+  </si>
+  <si>
+    <t>Rato</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Palacio</t>
+  </si>
+  <si>
+    <t>Pentelho</t>
+  </si>
+  <si>
+    <t>Hazin</t>
+  </si>
+  <si>
+    <t>Random</t>
   </si>
 </sst>
 </file>
@@ -565,8 +610,8 @@
   <dimension ref="A1:W847"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +698,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -665,20 +710,24 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -694,7 +743,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -706,20 +755,24 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -735,7 +788,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -747,20 +800,24 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -769,14 +826,16 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
       <c r="W4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -788,20 +847,24 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -817,7 +880,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -829,20 +892,26 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -858,7 +927,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>33</v>
@@ -870,20 +939,24 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -899,7 +972,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
@@ -911,17 +984,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -930,7 +1005,9 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -940,7 +1017,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
@@ -952,17 +1029,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -981,7 +1060,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
@@ -993,17 +1072,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1022,7 +1103,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>33</v>
@@ -1034,17 +1115,19 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1063,7 +1146,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
@@ -1075,17 +1158,19 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1103,16 +1188,32 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1125,18 +1226,37 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1145,22 +1265,43 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3">
+        <v>2</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1173,18 +1314,37 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1197,18 +1357,37 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1221,18 +1400,37 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1245,18 +1443,37 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1269,21 +1486,42 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1293,21 +1531,44 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1316,22 +1577,45 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="V21" s="3">
+        <v>1</v>
+      </c>
+      <c r="W21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1341,21 +1625,44 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1365,21 +1672,44 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -1389,21 +1719,44 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -1413,18 +1766,37 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1433,22 +1805,43 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="S26" s="3">
+        <v>2</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1461,18 +1854,37 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1485,16 +1897,37 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1507,20 +1940,41 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="W29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -1531,19 +1985,40 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1555,16 +2030,35 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1575,20 +2069,43 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="S32" s="3">
+        <v>1</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1</v>
+      </c>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1603,20 +2120,41 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -1627,19 +2165,40 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -1651,20 +2210,41 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -1675,19 +2255,40 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -1699,18 +2300,37 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -1719,22 +2339,43 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
+      <c r="S38" s="3">
+        <v>5</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -1747,18 +2388,37 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -1771,19 +2431,40 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -1795,18 +2476,37 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -1819,20 +2519,41 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -1843,16 +2564,35 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -1863,23 +2603,46 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
+      <c r="S44" s="3">
+        <v>1</v>
+      </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="K45" s="3">
+        <v>2</v>
+      </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -1891,19 +2654,40 @@
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="W45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -1915,19 +2699,40 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="W46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -1939,20 +2744,41 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="W47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="3">
+        <v>2</v>
+      </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -1963,19 +2789,40 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="W48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -1987,17 +2834,36 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="W49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2007,21 +2873,42 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
+      <c r="S50" s="3">
+        <v>1</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="W50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -2034,21 +2921,44 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="V51" s="3">
+        <v>1</v>
+      </c>
+      <c r="W51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -2059,17 +2969,36 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="W52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -2083,19 +3012,40 @@
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="W53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -2107,17 +3057,36 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="W54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2131,17 +3100,36 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="W55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -2151,21 +3139,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
+      <c r="S56" s="3">
+        <v>1</v>
+      </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="W56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -2179,20 +3188,41 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="W57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
+      <c r="L58" s="3">
+        <v>1</v>
+      </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -2203,19 +3233,40 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="W58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
       <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -2227,17 +3278,36 @@
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="W59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -2251,17 +3321,36 @@
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="W60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -2275,17 +3364,36 @@
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="W61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>6</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -2295,21 +3403,42 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
+      <c r="S62" s="3">
+        <v>1</v>
+      </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="W62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
+        <v>6</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="I63" s="3">
+        <v>1</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -2323,19 +3452,40 @@
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="W63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3">
+        <v>6</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="K64" s="3">
+        <v>1</v>
+      </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -2347,17 +3497,36 @@
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="W64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>6</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -2371,20 +3540,41 @@
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="W65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3">
+        <v>6</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -2395,17 +3585,36 @@
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="W66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3">
+        <v>6</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="I67" s="3">
+        <v>1</v>
+      </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -2419,43 +3628,87 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="W67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>6</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3">
+        <v>1</v>
+      </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="3">
+        <v>1</v>
+      </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
+      <c r="S68" s="3">
+        <v>1</v>
+      </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="W68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>6</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
       <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+      <c r="K69" s="3">
+        <v>1</v>
+      </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -2467,17 +3720,36 @@
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="W69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3">
+        <v>6</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+      <c r="I70" s="3">
+        <v>1</v>
+      </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -2491,15 +3763,36 @@
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="W70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3">
+        <v>6</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -2513,41 +3806,83 @@
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="W71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>6</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="I72" s="3">
+        <v>1</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
+      <c r="O72" s="3">
+        <v>1</v>
+      </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="V72" s="3">
+        <v>1</v>
+      </c>
+      <c r="W72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>6</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="I73" s="3">
+        <v>1</v>
+      </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -2561,18 +3896,37 @@
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="W73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>7</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="J74" s="3">
+        <v>1</v>
+      </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -2581,22 +3935,43 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
+      <c r="S74" s="3">
+        <v>2</v>
+      </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="W74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>7</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="J75" s="3">
+        <v>1</v>
+      </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -2609,19 +3984,40 @@
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="W75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3">
+        <v>7</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="J76" s="3">
+        <v>1</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -2633,16 +4029,37 @@
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="W76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3">
+        <v>7</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="J77" s="3">
+        <v>1</v>
+      </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -2655,18 +4072,37 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="W77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3">
+        <v>7</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="J78" s="3">
+        <v>1</v>
+      </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -2679,20 +4115,41 @@
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+      <c r="W78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3">
+        <v>7</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="J79" s="3">
+        <v>1</v>
+      </c>
       <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
+      <c r="L79" s="3">
+        <v>1</v>
+      </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -2703,16 +4160,35 @@
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="W79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -2723,23 +4199,46 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
+      <c r="S80" s="3">
+        <v>1</v>
+      </c>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="W80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3">
+        <v>7</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="K81" s="3">
+        <v>1</v>
+      </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -2751,16 +4250,35 @@
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="W81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3">
+        <v>7</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -2775,19 +4293,40 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="W82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3">
+        <v>7</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="K83" s="3">
+        <v>1</v>
+      </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -2799,40 +4338,84 @@
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="W83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3">
+        <v>7</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
+      <c r="L84" s="3">
+        <v>1</v>
+      </c>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
+      <c r="P84" s="3">
+        <v>1</v>
+      </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
+      <c r="V84" s="3">
+        <v>1</v>
+      </c>
+      <c r="W84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3">
+        <v>7</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -2847,17 +4430,36 @@
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+      <c r="W85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3">
+        <v>8</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
+      <c r="I86" s="3">
+        <v>1</v>
+      </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -2867,21 +4469,42 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
+      <c r="S86" s="3">
+        <v>1</v>
+      </c>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+      <c r="W86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3">
+        <v>8</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="I87" s="3">
+        <v>1</v>
+      </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -2895,20 +4518,41 @@
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="W87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3">
+        <v>8</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
+      <c r="I88" s="3">
+        <v>1</v>
+      </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
@@ -2919,19 +4563,40 @@
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+      <c r="W88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
       <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -2943,17 +4608,36 @@
       <c r="T89" s="3"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
+      <c r="W89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3">
+        <v>8</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
+      <c r="I90" s="3">
+        <v>1</v>
+      </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -2967,41 +4651,83 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+      <c r="W90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
+      <c r="I91" s="3">
+        <v>1</v>
+      </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
+      <c r="O91" s="3">
+        <v>1</v>
+      </c>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+      <c r="V91" s="3">
+        <v>1</v>
+      </c>
+      <c r="W91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3">
+        <v>8</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
+      <c r="I92" s="3">
+        <v>1</v>
+      </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -3011,21 +4737,42 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
+      <c r="S92" s="3">
+        <v>1</v>
+      </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+      <c r="W92" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3">
+        <v>8</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
+      <c r="I93" s="3">
+        <v>1</v>
+      </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -3039,17 +4786,36 @@
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="W93" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
+      <c r="I94" s="3">
+        <v>1</v>
+      </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -3063,17 +4829,36 @@
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="W94" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3">
+        <v>8</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
+      <c r="I95" s="3">
+        <v>1</v>
+      </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -3087,19 +4872,40 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="W95" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3">
+        <v>8</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
+      <c r="I96" s="3">
+        <v>1</v>
+      </c>
       <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="K96" s="3">
+        <v>1</v>
+      </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -3111,20 +4917,41 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="W96" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+      <c r="D97" s="3">
+        <v>8</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="I97" s="3">
+        <v>1</v>
+      </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
+      <c r="L97" s="3">
+        <v>1</v>
+      </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -3135,8 +4962,11 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W97" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="4"/>
@@ -3160,7 +4990,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="4"/>
@@ -3184,7 +5014,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="4"/>
@@ -3208,7 +5038,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="4"/>
@@ -3232,7 +5062,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="4"/>
@@ -3256,7 +5086,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="4"/>
@@ -3280,7 +5110,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="4"/>
@@ -3304,7 +5134,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="4"/>
@@ -3328,7 +5158,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="4"/>
@@ -3352,7 +5182,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="4"/>
@@ -3374,7 +5204,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="4"/>
@@ -3398,7 +5228,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="4"/>
@@ -3422,7 +5252,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="4"/>
@@ -3446,7 +5276,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="4"/>
@@ -3470,7 +5300,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="4"/>

--- a/data/copas_mr.xlsx
+++ b/data/copas_mr.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\GitHub\mr_league_dashboard_2024\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tales\OneDrive\Documentos\GitHub\mr_league_dashboard_2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9F36AA-DD36-4DCF-A9DE-45C425CD6800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFrame" sheetId="1" r:id="rId1"/>
     <sheet name="TABELA PONTUAÇÃO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="70">
   <si>
     <t>GOL</t>
   </si>
@@ -212,11 +222,35 @@
   <si>
     <t>Random</t>
   </si>
+  <si>
+    <t>Victor GK</t>
+  </si>
+  <si>
+    <t>Hugo GK linha</t>
+  </si>
+  <si>
+    <t>Manhã</t>
+  </si>
+  <si>
+    <t>Paulo Rafael</t>
+  </si>
+  <si>
+    <t>Daniel Diária</t>
+  </si>
+  <si>
+    <t>Xande V.</t>
+  </si>
+  <si>
+    <t>Maurício</t>
+  </si>
+  <si>
+    <t>Pintp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,12 +640,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W847"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P171" sqref="P171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4967,15 +5001,31 @@
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="A98" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="4">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>9</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+      <c r="I98" s="3">
+        <v>1</v>
+      </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -4985,21 +5035,42 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
+      <c r="S98" s="3">
+        <v>1</v>
+      </c>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
+      <c r="W98" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+      <c r="A99" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="4">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3">
+        <v>9</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+      <c r="I99" s="3">
+        <v>1</v>
+      </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -5013,19 +5084,40 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
+      <c r="W99" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="A100" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3">
+        <v>9</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="I100" s="3">
+        <v>1</v>
+      </c>
       <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+      <c r="K100" s="3">
+        <v>1</v>
+      </c>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -5037,17 +5129,36 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
+      <c r="W100" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
+      <c r="A101" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="4">
+        <v>2</v>
+      </c>
+      <c r="D101" s="3">
+        <v>9</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="I101" s="3">
+        <v>1</v>
+      </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -5061,20 +5172,41 @@
       <c r="T101" s="3"/>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
+      <c r="W101" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+      <c r="A102" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="4">
+        <v>2</v>
+      </c>
+      <c r="D102" s="3">
+        <v>9</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3">
+        <v>1</v>
+      </c>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -5085,17 +5217,36 @@
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
+      <c r="W102" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
+      <c r="A103" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="4">
+        <v>2</v>
+      </c>
+      <c r="D103" s="3">
+        <v>9</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -5109,17 +5260,36 @@
       <c r="T103" s="3"/>
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
+      <c r="W103" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+      <c r="A104" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="4">
+        <v>2</v>
+      </c>
+      <c r="D104" s="3">
+        <v>9</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
+      <c r="I104" s="3">
+        <v>1</v>
+      </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
@@ -5129,21 +5299,42 @@
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
+      <c r="S104" s="3">
+        <v>1</v>
+      </c>
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
+      <c r="W104" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
+      <c r="A105" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="4">
+        <v>2</v>
+      </c>
+      <c r="D105" s="3">
+        <v>9</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
+      <c r="I105" s="3">
+        <v>1</v>
+      </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
@@ -5157,19 +5348,40 @@
       <c r="T105" s="3"/>
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
+      <c r="W105" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+      <c r="A106" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="4">
+        <v>2</v>
+      </c>
+      <c r="D106" s="3">
+        <v>9</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
+      <c r="I106" s="3">
+        <v>1</v>
+      </c>
       <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
+      <c r="K106" s="3">
+        <v>1</v>
+      </c>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
@@ -5181,15 +5393,36 @@
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
+      <c r="W106" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="3"/>
-      <c r="G107" s="3"/>
+      <c r="A107" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="4">
+        <v>2</v>
+      </c>
+      <c r="D107" s="3">
+        <v>9</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
+      <c r="I107" s="3">
+        <v>1</v>
+      </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -5203,17 +5436,36 @@
       <c r="T107" s="3"/>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
+      <c r="W107" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+      <c r="A108" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="4">
+        <v>2</v>
+      </c>
+      <c r="D108" s="3">
+        <v>9</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
+      <c r="I108" s="3">
+        <v>1</v>
+      </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -5227,17 +5479,36 @@
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
+      <c r="W108" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
+      <c r="A109" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="4">
+        <v>2</v>
+      </c>
+      <c r="D109" s="3">
+        <v>9</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+      <c r="I109" s="3">
+        <v>1</v>
+      </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -5251,18 +5522,37 @@
       <c r="T109" s="3"/>
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
+      <c r="W109" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
+      <c r="A110" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="4">
+        <v>2</v>
+      </c>
+      <c r="D110" s="3">
+        <v>10</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+      <c r="J110" s="3">
+        <v>1</v>
+      </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -5271,22 +5561,43 @@
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
+      <c r="S110" s="3">
+        <v>1</v>
+      </c>
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
+      <c r="W110" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
+      <c r="A111" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="4">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3">
+        <v>10</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="J111" s="3">
+        <v>1</v>
+      </c>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -5299,18 +5610,37 @@
       <c r="T111" s="3"/>
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
+      <c r="W111" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+      <c r="A112" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="4">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3">
+        <v>10</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="J112" s="3">
+        <v>1</v>
+      </c>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
@@ -5323,18 +5653,37 @@
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
+      <c r="W112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="4">
+        <v>2</v>
+      </c>
+      <c r="D113" s="3">
+        <v>10</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="J113" s="3">
+        <v>1</v>
+      </c>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -5347,18 +5696,37 @@
       <c r="T113" s="3"/>
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
+      <c r="W113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="4">
+        <v>2</v>
+      </c>
+      <c r="D114" s="3">
+        <v>10</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="J114" s="3">
+        <v>1</v>
+      </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -5371,18 +5739,37 @@
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
+      <c r="W114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="4">
+        <v>2</v>
+      </c>
+      <c r="D115" s="3">
+        <v>10</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="J115" s="3">
+        <v>1</v>
+      </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -5395,45 +5782,89 @@
       <c r="T115" s="3"/>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
+      <c r="W115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="4">
+        <v>2</v>
+      </c>
+      <c r="D116" s="3">
+        <v>10</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
+      <c r="M116" s="3">
+        <v>1</v>
+      </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
-      <c r="T116" s="3"/>
+      <c r="T116" s="3">
+        <v>1</v>
+      </c>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
+      <c r="W116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="4">
+        <v>2</v>
+      </c>
+      <c r="D117" s="3">
+        <v>10</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
+      <c r="M117" s="3">
+        <v>1</v>
+      </c>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
@@ -5443,21 +5874,42 @@
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
+      <c r="W117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="4">
+        <v>2</v>
+      </c>
+      <c r="D118" s="3">
+        <v>10</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" s="3">
+        <v>1</v>
+      </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
+      <c r="M118" s="3">
+        <v>1</v>
+      </c>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
@@ -5467,21 +5919,44 @@
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
+      <c r="W118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="4">
+        <v>2</v>
+      </c>
+      <c r="D119" s="3">
+        <v>10</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" s="3">
+        <v>1</v>
+      </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
+      <c r="L119" s="3">
+        <v>1</v>
+      </c>
+      <c r="M119" s="3">
+        <v>1</v>
+      </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
@@ -5491,21 +5966,44 @@
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
+      <c r="W119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="4">
+        <v>2</v>
+      </c>
+      <c r="D120" s="3">
+        <v>10</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
+      <c r="K120" s="3">
+        <v>1</v>
+      </c>
       <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
+      <c r="M120" s="3">
+        <v>1</v>
+      </c>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
@@ -5515,21 +6013,42 @@
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
+      <c r="W120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="4">
+        <v>2</v>
+      </c>
+      <c r="D121" s="3">
+        <v>10</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121" s="3">
+        <v>1</v>
+      </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
+      <c r="M121" s="3">
+        <v>1</v>
+      </c>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
@@ -5539,16 +6058,35 @@
       <c r="T121" s="3"/>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
+      <c r="W121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="4">
+        <v>2</v>
+      </c>
+      <c r="D122" s="3">
+        <v>11</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" s="3">
+        <v>1</v>
+      </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -5559,20 +6097,41 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
-      <c r="S122" s="3"/>
+      <c r="S122" s="3">
+        <v>1</v>
+      </c>
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
+      <c r="W122" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="4">
+        <v>2</v>
+      </c>
+      <c r="D123" s="3">
+        <v>11</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1</v>
+      </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -5587,16 +6146,35 @@
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+      <c r="W123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="4">
+        <v>2</v>
+      </c>
+      <c r="D124" s="3">
+        <v>11</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="3">
+        <v>1</v>
+      </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -5611,20 +6189,43 @@
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
+      <c r="W124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="4">
+        <v>2</v>
+      </c>
+      <c r="D125" s="3">
+        <v>11</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H125" s="3">
+        <v>1</v>
+      </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
+      <c r="K125" s="3">
+        <v>1</v>
+      </c>
+      <c r="L125" s="3">
+        <v>1</v>
+      </c>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
@@ -5635,20 +6236,43 @@
       <c r="T125" s="3"/>
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
+      <c r="W125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="4">
+        <v>2</v>
+      </c>
+      <c r="D126" s="3">
+        <v>11</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H126" s="3">
+        <v>1</v>
+      </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
+      <c r="K126" s="3">
+        <v>1</v>
+      </c>
+      <c r="L126" s="3">
+        <v>1</v>
+      </c>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
@@ -5659,16 +6283,35 @@
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
+      <c r="W126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="4">
+        <v>2</v>
+      </c>
+      <c r="D127" s="3">
+        <v>11</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H127" s="3">
+        <v>1</v>
+      </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -5683,18 +6326,37 @@
       <c r="T127" s="3"/>
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+      <c r="W127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="4">
+        <v>2</v>
+      </c>
+      <c r="D128" s="3">
+        <v>11</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="J128" s="3">
+        <v>1</v>
+      </c>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -5703,22 +6365,43 @@
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
-      <c r="S128" s="3"/>
+      <c r="S128" s="3">
+        <v>2</v>
+      </c>
       <c r="T128" s="3"/>
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
+      <c r="W128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="4">
+        <v>2</v>
+      </c>
+      <c r="D129" s="3">
+        <v>11</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="J129" s="3">
+        <v>1</v>
+      </c>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -5731,19 +6414,40 @@
       <c r="T129" s="3"/>
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="W129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="4">
+        <v>2</v>
+      </c>
+      <c r="D130" s="3">
+        <v>11</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
+      <c r="J130" s="3">
+        <v>1</v>
+      </c>
+      <c r="K130" s="3">
+        <v>1</v>
+      </c>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
@@ -5755,18 +6459,37 @@
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
+      <c r="W130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="4">
+        <v>2</v>
+      </c>
+      <c r="D131" s="3">
+        <v>11</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="J131" s="3">
+        <v>1</v>
+      </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -5779,18 +6502,37 @@
       <c r="T131" s="3"/>
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
+      <c r="W131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" s="4">
+        <v>2</v>
+      </c>
+      <c r="D132" s="3">
+        <v>11</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="J132" s="3">
+        <v>1</v>
+      </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -5803,16 +6545,37 @@
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="3"/>
-      <c r="G133" s="3"/>
+      <c r="W132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" s="4">
+        <v>2</v>
+      </c>
+      <c r="D133" s="3">
+        <v>11</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="J133" s="3">
+        <v>1</v>
+      </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -5825,18 +6588,37 @@
       <c r="T133" s="3"/>
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
+      <c r="W133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="4">
+        <v>2</v>
+      </c>
+      <c r="D134" s="3">
+        <v>12</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
+      <c r="J134" s="3">
+        <v>1</v>
+      </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
@@ -5845,22 +6627,45 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
-      <c r="S134" s="3"/>
-      <c r="T134" s="3"/>
+      <c r="S134" s="3">
+        <v>1</v>
+      </c>
+      <c r="T134" s="3">
+        <v>1</v>
+      </c>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
+      <c r="W134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="4">
+        <v>2</v>
+      </c>
+      <c r="D135" s="3">
+        <v>12</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="J135" s="3">
+        <v>1</v>
+      </c>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
@@ -5873,18 +6678,37 @@
       <c r="T135" s="3"/>
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
+      <c r="W135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="4">
+        <v>2</v>
+      </c>
+      <c r="D136" s="3">
+        <v>12</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="J136" s="3">
+        <v>1</v>
+      </c>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
@@ -5897,18 +6721,37 @@
       <c r="T136" s="3"/>
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
+      <c r="W136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="4">
+        <v>2</v>
+      </c>
+      <c r="D137" s="3">
+        <v>12</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="J137" s="3">
+        <v>1</v>
+      </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
@@ -5921,18 +6764,37 @@
       <c r="T137" s="3"/>
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+      <c r="W137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="4">
+        <v>2</v>
+      </c>
+      <c r="D138" s="3">
+        <v>12</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
+      <c r="J138" s="3">
+        <v>1</v>
+      </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
@@ -5945,18 +6807,37 @@
       <c r="T138" s="3"/>
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
+      <c r="W138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" s="4">
+        <v>2</v>
+      </c>
+      <c r="D139" s="3">
+        <v>12</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="J139" s="3">
+        <v>1</v>
+      </c>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
@@ -5969,21 +6850,42 @@
       <c r="T139" s="3"/>
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
+      <c r="W139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" s="4">
+        <v>2</v>
+      </c>
+      <c r="D140" s="3">
+        <v>12</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H140" s="3">
+        <v>1</v>
+      </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-      <c r="M140" s="3"/>
+      <c r="M140" s="3">
+        <v>1</v>
+      </c>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
@@ -5993,21 +6895,44 @@
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
+      <c r="W140" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" s="4">
+        <v>2</v>
+      </c>
+      <c r="D141" s="3">
+        <v>12</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H141" s="3">
+        <v>1</v>
+      </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
-      <c r="M141" s="3"/>
+      <c r="L141" s="3">
+        <v>1</v>
+      </c>
+      <c r="M141" s="3">
+        <v>1</v>
+      </c>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
@@ -6017,21 +6942,42 @@
       <c r="T141" s="3"/>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
+      <c r="W141" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="4">
+        <v>2</v>
+      </c>
+      <c r="D142" s="3">
+        <v>12</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H142" s="3">
+        <v>1</v>
+      </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
-      <c r="M142" s="3"/>
+      <c r="M142" s="3">
+        <v>1</v>
+      </c>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
@@ -6041,21 +6987,42 @@
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
+      <c r="W142" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="4">
+        <v>2</v>
+      </c>
+      <c r="D143" s="3">
+        <v>12</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H143" s="3">
+        <v>1</v>
+      </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
-      <c r="M143" s="3"/>
+      <c r="M143" s="3">
+        <v>1</v>
+      </c>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
@@ -6065,21 +7032,42 @@
       <c r="T143" s="3"/>
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
+      <c r="W143" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="4">
+        <v>2</v>
+      </c>
+      <c r="D144" s="3">
+        <v>12</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H144" s="3">
+        <v>1</v>
+      </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
-      <c r="M144" s="3"/>
+      <c r="M144" s="3">
+        <v>1</v>
+      </c>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
@@ -6089,21 +7077,44 @@
       <c r="T144" s="3"/>
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
+      <c r="W144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="4">
+        <v>2</v>
+      </c>
+      <c r="D145" s="3">
+        <v>12</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H145" s="3">
+        <v>1</v>
+      </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
+      <c r="K145" s="3">
+        <v>1</v>
+      </c>
       <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
+      <c r="M145" s="3">
+        <v>1</v>
+      </c>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
@@ -6113,17 +7124,36 @@
       <c r="T145" s="3"/>
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
+      <c r="W145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="4">
+        <v>2</v>
+      </c>
+      <c r="D146" s="3">
+        <v>13</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
+      <c r="I146" s="3">
+        <v>1</v>
+      </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -6133,21 +7163,42 @@
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
-      <c r="S146" s="3"/>
+      <c r="S146" s="3">
+        <v>1</v>
+      </c>
       <c r="T146" s="3"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
+      <c r="W146" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="4">
+        <v>2</v>
+      </c>
+      <c r="D147" s="3">
+        <v>13</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
+      <c r="I147" s="3">
+        <v>1</v>
+      </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -6161,19 +7212,40 @@
       <c r="T147" s="3"/>
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
+      <c r="W147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" s="4">
+        <v>2</v>
+      </c>
+      <c r="D148" s="3">
+        <v>13</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
+      <c r="I148" s="3">
+        <v>1</v>
+      </c>
       <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
+      <c r="K148" s="3">
+        <v>1</v>
+      </c>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
@@ -6185,17 +7257,36 @@
       <c r="T148" s="3"/>
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
+      <c r="W148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" s="4">
+        <v>2</v>
+      </c>
+      <c r="D149" s="3">
+        <v>13</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
+      <c r="I149" s="3">
+        <v>1</v>
+      </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -6209,17 +7300,36 @@
       <c r="T149" s="3"/>
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
+      <c r="W149" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" s="4">
+        <v>2</v>
+      </c>
+      <c r="D150" s="3">
+        <v>13</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
+      <c r="I150" s="3">
+        <v>1</v>
+      </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -6233,17 +7343,36 @@
       <c r="T150" s="3"/>
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
+      <c r="W150" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" s="4">
+        <v>2</v>
+      </c>
+      <c r="D151" s="3">
+        <v>13</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
+      <c r="I151" s="3">
+        <v>1</v>
+      </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -6257,17 +7386,36 @@
       <c r="T151" s="3"/>
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
+      <c r="W151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="4">
+        <v>2</v>
+      </c>
+      <c r="D152" s="3">
+        <v>13</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
+      <c r="I152" s="3">
+        <v>1</v>
+      </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -6277,23 +7425,46 @@
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
-      <c r="S152" s="3"/>
+      <c r="S152" s="3">
+        <v>1</v>
+      </c>
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
+      <c r="W152" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" s="4">
+        <v>2</v>
+      </c>
+      <c r="D153" s="3">
+        <v>13</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
+      <c r="I153" s="3">
+        <v>1</v>
+      </c>
       <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
+      <c r="K153" s="3">
+        <v>1</v>
+      </c>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
@@ -6305,17 +7476,36 @@
       <c r="T153" s="3"/>
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
+      <c r="W153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" s="4">
+        <v>2</v>
+      </c>
+      <c r="D154" s="3">
+        <v>13</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
+      <c r="I154" s="3">
+        <v>1</v>
+      </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -6329,20 +7519,41 @@
       <c r="T154" s="3"/>
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
+      <c r="W154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" s="4">
+        <v>2</v>
+      </c>
+      <c r="D155" s="3">
+        <v>13</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
+      <c r="I155" s="3">
+        <v>1</v>
+      </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
-      <c r="L155" s="3"/>
+      <c r="L155" s="3">
+        <v>1</v>
+      </c>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
@@ -6353,23 +7564,44 @@
       <c r="T155" s="3"/>
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
+      <c r="W155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" s="4">
+        <v>2</v>
+      </c>
+      <c r="D156" s="3">
+        <v>13</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
+      <c r="I156" s="3">
+        <v>1</v>
+      </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
-      <c r="O156" s="3"/>
+      <c r="O156" s="3">
+        <v>1</v>
+      </c>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
@@ -6377,17 +7609,36 @@
       <c r="T156" s="3"/>
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
+      <c r="W156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" s="4">
+        <v>2</v>
+      </c>
+      <c r="D157" s="3">
+        <v>13</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
+      <c r="I157" s="3">
+        <v>1</v>
+      </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -6401,16 +7652,35 @@
       <c r="T157" s="3"/>
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
+      <c r="W157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="4">
+        <v>2</v>
+      </c>
+      <c r="D158" s="3">
+        <v>14</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H158" s="3">
+        <v>1</v>
+      </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -6421,23 +7691,46 @@
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
-      <c r="S158" s="3"/>
+      <c r="S158" s="3">
+        <v>2</v>
+      </c>
       <c r="T158" s="3"/>
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
+      <c r="W158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" s="4">
+        <v>2</v>
+      </c>
+      <c r="D159" s="3">
+        <v>14</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
+      <c r="K159" s="3">
+        <v>1</v>
+      </c>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
@@ -6449,20 +7742,41 @@
       <c r="T159" s="3"/>
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
+      <c r="W159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" s="4">
+        <v>2</v>
+      </c>
+      <c r="D160" s="3">
+        <v>14</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H160" s="3">
+        <v>1</v>
+      </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
-      <c r="L160" s="3"/>
+      <c r="L160" s="3">
+        <v>1</v>
+      </c>
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -6473,19 +7787,40 @@
       <c r="T160" s="3"/>
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
+      <c r="W160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="4">
+        <v>2</v>
+      </c>
+      <c r="D161" s="3">
+        <v>14</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H161" s="3">
+        <v>1</v>
+      </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
+      <c r="K161" s="3">
+        <v>1</v>
+      </c>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
@@ -6497,16 +7832,35 @@
       <c r="T161" s="3"/>
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
+      <c r="W161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="4">
+        <v>2</v>
+      </c>
+      <c r="D162" s="3">
+        <v>14</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H162" s="3">
+        <v>1</v>
+      </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
@@ -6521,14 +7875,35 @@
       <c r="T162" s="3"/>
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
+      <c r="W162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="4">
+        <v>2</v>
+      </c>
+      <c r="D163" s="3">
+        <v>14</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H163" s="3">
+        <v>1</v>
+      </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
@@ -6543,42 +7918,86 @@
       <c r="T163" s="3"/>
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
+      <c r="W163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" s="4">
+        <v>2</v>
+      </c>
+      <c r="D164" s="3">
+        <v>14</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
+      <c r="J164" s="3">
+        <v>1</v>
+      </c>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
-      <c r="N164" s="3"/>
+      <c r="N164" s="3">
+        <v>1</v>
+      </c>
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
       <c r="R164" s="3"/>
-      <c r="S164" s="3"/>
-      <c r="T164" s="3"/>
+      <c r="S164" s="3">
+        <v>3</v>
+      </c>
+      <c r="T164" s="3">
+        <v>1</v>
+      </c>
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
+      <c r="W164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="4">
+        <v>2</v>
+      </c>
+      <c r="D165" s="3">
+        <v>14</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
+      <c r="J165" s="3">
+        <v>1</v>
+      </c>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
@@ -6591,18 +8010,37 @@
       <c r="T165" s="3"/>
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
+      <c r="W165" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="4">
+        <v>2</v>
+      </c>
+      <c r="D166" s="3">
+        <v>14</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="J166" s="3">
+        <v>1</v>
+      </c>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
@@ -6615,18 +8053,37 @@
       <c r="T166" s="3"/>
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
+      <c r="W166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="4">
+        <v>2</v>
+      </c>
+      <c r="D167" s="3">
+        <v>14</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
+      <c r="J167" s="3">
+        <v>1</v>
+      </c>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
@@ -6639,18 +8096,37 @@
       <c r="T167" s="3"/>
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
+      <c r="W167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="4">
+        <v>2</v>
+      </c>
+      <c r="D168" s="3">
+        <v>14</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="J168" s="3">
+        <v>1</v>
+      </c>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
@@ -6663,19 +8139,40 @@
       <c r="T168" s="3"/>
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
+      <c r="W168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" s="4">
+        <v>2</v>
+      </c>
+      <c r="D169" s="3">
+        <v>14</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
+      <c r="J169" s="3">
+        <v>1</v>
+      </c>
+      <c r="K169" s="3">
+        <v>2</v>
+      </c>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
@@ -6687,17 +8184,36 @@
       <c r="T169" s="3"/>
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
+      <c r="W169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="4">
+        <v>2</v>
+      </c>
+      <c r="D170" s="3">
+        <v>15</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
+      <c r="I170" s="3">
+        <v>1</v>
+      </c>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
@@ -6707,24 +8223,47 @@
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
       <c r="R170" s="3"/>
-      <c r="S170" s="3"/>
+      <c r="S170" s="3">
+        <v>1</v>
+      </c>
       <c r="T170" s="3"/>
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
+      <c r="W170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" s="4">
+        <v>2</v>
+      </c>
+      <c r="D171" s="3">
+        <v>15</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
+      <c r="I171" s="3">
+        <v>1</v>
+      </c>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
-      <c r="L171" s="3"/>
+      <c r="L171" s="3">
+        <v>1</v>
+      </c>
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
@@ -6735,19 +8274,40 @@
       <c r="T171" s="3"/>
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
+      <c r="W171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" s="4">
+        <v>2</v>
+      </c>
+      <c r="D172" s="3">
+        <v>15</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
+      <c r="I172" s="3">
+        <v>1</v>
+      </c>
       <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
+      <c r="K172" s="3">
+        <v>1</v>
+      </c>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
@@ -6759,17 +8319,36 @@
       <c r="T172" s="3"/>
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
+      <c r="W172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" s="4">
+        <v>2</v>
+      </c>
+      <c r="D173" s="3">
+        <v>15</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
+      <c r="I173" s="3">
+        <v>1</v>
+      </c>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
@@ -6783,23 +8362,44 @@
       <c r="T173" s="3"/>
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
+      <c r="W173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" s="4">
+        <v>2</v>
+      </c>
+      <c r="D174" s="3">
+        <v>15</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
+      <c r="I174" s="3">
+        <v>1</v>
+      </c>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
-      <c r="O174" s="3"/>
+      <c r="O174" s="3">
+        <v>1</v>
+      </c>
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
       <c r="R174" s="3"/>
@@ -6807,17 +8407,36 @@
       <c r="T174" s="3"/>
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+      <c r="W174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="4">
+        <v>2</v>
+      </c>
+      <c r="D175" s="3">
+        <v>15</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
+      <c r="I175" s="3">
+        <v>1</v>
+      </c>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
@@ -6831,17 +8450,36 @@
       <c r="T175" s="3"/>
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+      <c r="W175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="4">
+        <v>2</v>
+      </c>
+      <c r="D176" s="3">
+        <v>15</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
+      <c r="I176" s="3">
+        <v>1</v>
+      </c>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
@@ -6851,21 +8489,42 @@
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
       <c r="R176" s="3"/>
-      <c r="S176" s="3"/>
+      <c r="S176" s="3">
+        <v>1</v>
+      </c>
       <c r="T176" s="3"/>
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+      <c r="W176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177" s="4">
+        <v>2</v>
+      </c>
+      <c r="D177" s="3">
+        <v>15</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
+      <c r="I177" s="3">
+        <v>1</v>
+      </c>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
@@ -6879,19 +8538,40 @@
       <c r="T177" s="3"/>
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
+      <c r="W177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C178" s="4">
+        <v>2</v>
+      </c>
+      <c r="D178" s="3">
+        <v>15</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
+      <c r="I178" s="3">
+        <v>1</v>
+      </c>
       <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
+      <c r="K178" s="3">
+        <v>1</v>
+      </c>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
@@ -6903,17 +8583,36 @@
       <c r="T178" s="3"/>
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
+      <c r="W178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C179" s="4">
+        <v>2</v>
+      </c>
+      <c r="D179" s="3">
+        <v>15</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
+      <c r="I179" s="3">
+        <v>1</v>
+      </c>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -6927,17 +8626,36 @@
       <c r="T179" s="3"/>
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
+      <c r="W179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" s="4">
+        <v>2</v>
+      </c>
+      <c r="D180" s="3">
+        <v>15</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
+      <c r="I180" s="3">
+        <v>1</v>
+      </c>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -6951,17 +8669,36 @@
       <c r="T180" s="3"/>
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
+      <c r="W180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C181" s="4">
+        <v>2</v>
+      </c>
+      <c r="D181" s="3">
+        <v>15</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
+      <c r="I181" s="3">
+        <v>1</v>
+      </c>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -6975,45 +8712,89 @@
       <c r="T181" s="3"/>
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
+      <c r="W181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="4">
+        <v>2</v>
+      </c>
+      <c r="D182" s="3">
+        <v>16</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
+      <c r="I182" s="3">
+        <v>1</v>
+      </c>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
+      <c r="M182" s="3">
+        <v>1</v>
+      </c>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
-      <c r="T182" s="3"/>
+      <c r="T182" s="3">
+        <v>2</v>
+      </c>
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
+      <c r="W182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" s="4">
+        <v>2</v>
+      </c>
+      <c r="D183" s="3">
+        <v>16</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
+      <c r="I183" s="3">
+        <v>1</v>
+      </c>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
-      <c r="M183" s="3"/>
+      <c r="M183" s="3">
+        <v>1</v>
+      </c>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
@@ -7023,21 +8804,42 @@
       <c r="T183" s="3"/>
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
+      <c r="W183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" s="4">
+        <v>2</v>
+      </c>
+      <c r="D184" s="3">
+        <v>16</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
+      <c r="I184" s="3">
+        <v>1</v>
+      </c>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
+      <c r="M184" s="3">
+        <v>1</v>
+      </c>
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
@@ -7047,21 +8849,42 @@
       <c r="T184" s="3"/>
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
+      <c r="W184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="4">
+        <v>2</v>
+      </c>
+      <c r="D185" s="3">
+        <v>16</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
+      <c r="I185" s="3">
+        <v>1</v>
+      </c>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
-      <c r="M185" s="3"/>
+      <c r="M185" s="3">
+        <v>1</v>
+      </c>
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
@@ -7071,21 +8894,42 @@
       <c r="T185" s="3"/>
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
+      <c r="W185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" s="4">
+        <v>2</v>
+      </c>
+      <c r="D186" s="3">
+        <v>16</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
+      <c r="I186" s="3">
+        <v>1</v>
+      </c>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
-      <c r="M186" s="3"/>
+      <c r="M186" s="3">
+        <v>1</v>
+      </c>
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
@@ -7095,21 +8939,42 @@
       <c r="T186" s="3"/>
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
+      <c r="W186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="4">
+        <v>2</v>
+      </c>
+      <c r="D187" s="3">
+        <v>16</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
+      <c r="I187" s="3">
+        <v>1</v>
+      </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
-      <c r="M187" s="3"/>
+      <c r="M187" s="3">
+        <v>1</v>
+      </c>
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
@@ -7119,21 +8984,42 @@
       <c r="T187" s="3"/>
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
+      <c r="W187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="4">
+        <v>2</v>
+      </c>
+      <c r="D188" s="3">
+        <v>16</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
+      <c r="I188" s="3">
+        <v>1</v>
+      </c>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
+      <c r="M188" s="3">
+        <v>1</v>
+      </c>
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
@@ -7143,21 +9029,42 @@
       <c r="T188" s="3"/>
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
+      <c r="W188" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="4">
+        <v>2</v>
+      </c>
+      <c r="D189" s="3">
+        <v>16</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
+      <c r="I189" s="3">
+        <v>1</v>
+      </c>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
-      <c r="M189" s="3"/>
+      <c r="M189" s="3">
+        <v>1</v>
+      </c>
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
@@ -7167,21 +9074,42 @@
       <c r="T189" s="3"/>
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+      <c r="W189" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="4">
+        <v>2</v>
+      </c>
+      <c r="D190" s="3">
+        <v>16</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
+      <c r="I190" s="3">
+        <v>1</v>
+      </c>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
-      <c r="M190" s="3"/>
+      <c r="M190" s="3">
+        <v>1</v>
+      </c>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
@@ -7191,21 +9119,42 @@
       <c r="T190" s="3"/>
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
+      <c r="W190" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" s="4">
+        <v>2</v>
+      </c>
+      <c r="D191" s="3">
+        <v>16</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
+      <c r="I191" s="3">
+        <v>1</v>
+      </c>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
+      <c r="M191" s="3">
+        <v>1</v>
+      </c>
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
@@ -7215,21 +9164,42 @@
       <c r="T191" s="3"/>
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
+      <c r="W191" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C192" s="4">
+        <v>2</v>
+      </c>
+      <c r="D192" s="3">
+        <v>16</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
+      <c r="I192" s="3">
+        <v>1</v>
+      </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
-      <c r="M192" s="3"/>
+      <c r="M192" s="3">
+        <v>1</v>
+      </c>
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
@@ -7239,21 +9209,42 @@
       <c r="T192" s="3"/>
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
+      <c r="W192" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" s="4">
+        <v>2</v>
+      </c>
+      <c r="D193" s="3">
+        <v>16</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
+      <c r="I193" s="3">
+        <v>1</v>
+      </c>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
-      <c r="M193" s="3"/>
+      <c r="M193" s="3">
+        <v>1</v>
+      </c>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
@@ -7263,8 +9254,11 @@
       <c r="T193" s="3"/>
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W193" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="4"/>
@@ -7288,7 +9282,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="4"/>
@@ -7312,7 +9306,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="4"/>
@@ -7336,7 +9330,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="4"/>
@@ -7360,7 +9354,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="4"/>
@@ -7384,7 +9378,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="4"/>
@@ -7406,7 +9400,7 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="4"/>
@@ -7430,7 +9424,7 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="4"/>
@@ -7454,7 +9448,7 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="4"/>
@@ -7478,7 +9472,7 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="4"/>
@@ -7502,7 +9496,7 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="4"/>
@@ -7526,7 +9520,7 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="4"/>
@@ -7550,7 +9544,7 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="4"/>
@@ -7574,7 +9568,7 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="4"/>
@@ -7598,7 +9592,7 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="4"/>
@@ -14176,20 +16170,20 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:V13">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:V13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E136:E145 E148:E152 E124:E132 E182 E188 E164:E176 E208:E212 E94 E118:E121 E625:E635 E22 E34 E46 E64 E637:E641 E200:E206 E158:E162 E214:E222 E190:E198 E384:E412 E414:E430 E432:E442 E444:E454 E456:E623 E224:E382">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E136:E145 E148:E152 E124:E132 E182 E188 E164:E176 E208:E212 E94 E118:E121 E625:E635 E22 E34 E46 E64 E637:E641 E200:E206 E158:E162 E214:E222 E190:E198 E384:E412 E414:E430 E432:E442 E444:E454 E456:E623 E224:E382" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>PLAYERS</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E123 E134:E135 E146:E147 E153:E157 E177:E181 E183:E187 E189 E207 E213 E2:E21 E78:E93 E35:E45 E47:E63 E30:E33 E23:E28 E65:E70 E72:E76 E108:E117 E95:E106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E123 E134:E135 E146:E147 E153:E157 E177:E181 E183:E187 E189 E207 E213 E2:E21 E78:E93 E35:E45 E47:E63 E30:E33 E23:E28 E65:E70 E72:E76 E108:E117 E95:E106" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>MENSAIS</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G847">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G847" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>times</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D355">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D355" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>1</formula1>
       <formula2>38</formula2>
     </dataValidation>
@@ -14200,7 +16194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/copas_mr.xlsx
+++ b/data/copas_mr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tales\OneDrive\Documentos\GitHub\mr_league_dashboard_2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9F36AA-DD36-4DCF-A9DE-45C425CD6800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2171BFF3-846D-4069-A9CD-7B960802EB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="DataFrame" sheetId="1" r:id="rId1"/>
     <sheet name="TABELA PONTUAÇÃO" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataFrame!$A$1:$W$193</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -644,8 +647,8 @@
   <dimension ref="A1:W847"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P171" sqref="P171"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16169,6 +16172,7 @@
       <c r="G847" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W193" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:V13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>

--- a/data/copas_mr.xlsx
+++ b/data/copas_mr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tales\OneDrive\Documentos\GitHub\mr_league_dashboard_2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2171BFF3-846D-4069-A9CD-7B960802EB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839C4A6-CA0C-4C10-A5A9-E983790FD3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TABELA PONTUAÇÃO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataFrame!$A$1:$W$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataFrame!$A$1:$W$289</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="72">
   <si>
     <t>GOL</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Pintp</t>
+  </si>
+  <si>
+    <t>Gabriel GK</t>
+  </si>
+  <si>
+    <t>Chiquinho</t>
   </si>
 </sst>
 </file>
@@ -647,8 +653,8 @@
   <dimension ref="A1:W847"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9262,15 +9268,31 @@
       </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
+      <c r="A194" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="4">
+        <v>3</v>
+      </c>
+      <c r="D194" s="3">
+        <v>17</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
+      <c r="I194" s="3">
+        <v>1</v>
+      </c>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
@@ -9280,24 +9302,49 @@
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
       <c r="R194" s="3"/>
-      <c r="S194" s="3"/>
-      <c r="T194" s="3"/>
+      <c r="S194" s="3">
+        <v>1</v>
+      </c>
+      <c r="T194" s="3">
+        <v>3</v>
+      </c>
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
+      <c r="W194" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
+      <c r="A195" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" s="4">
+        <v>3</v>
+      </c>
+      <c r="D195" s="3">
+        <v>17</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
+      <c r="I195" s="3">
+        <v>1</v>
+      </c>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
+      <c r="L195" s="3">
+        <v>1</v>
+      </c>
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
@@ -9308,17 +9355,36 @@
       <c r="T195" s="3"/>
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
+      <c r="W195" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
+      <c r="A196" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C196" s="4">
+        <v>3</v>
+      </c>
+      <c r="D196" s="3">
+        <v>17</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
+      <c r="I196" s="3">
+        <v>1</v>
+      </c>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
@@ -9332,17 +9398,36 @@
       <c r="T196" s="3"/>
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
+      <c r="W196" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
+      <c r="A197" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C197" s="4">
+        <v>3</v>
+      </c>
+      <c r="D197" s="3">
+        <v>17</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
+      <c r="I197" s="3">
+        <v>1</v>
+      </c>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
@@ -9356,17 +9441,36 @@
       <c r="T197" s="3"/>
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
+      <c r="W197" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
+      <c r="A198" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="4">
+        <v>3</v>
+      </c>
+      <c r="D198" s="3">
+        <v>17</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
+      <c r="I198" s="3">
+        <v>1</v>
+      </c>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
@@ -9380,17 +9484,40 @@
       <c r="T198" s="3"/>
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
+      <c r="W198" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="3"/>
-      <c r="G199" s="3"/>
+      <c r="A199" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="4">
+        <v>3</v>
+      </c>
+      <c r="D199" s="3">
+        <v>17</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
+      <c r="I199" s="3">
+        <v>1</v>
+      </c>
       <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
+      <c r="K199" s="3">
+        <v>1</v>
+      </c>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
       <c r="N199" s="3"/>
@@ -9402,17 +9529,36 @@
       <c r="T199" s="3"/>
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
+      <c r="W199" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
+      <c r="A200" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C200" s="4">
+        <v>3</v>
+      </c>
+      <c r="D200" s="3">
+        <v>17</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
+      <c r="I200" s="3">
+        <v>1</v>
+      </c>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
@@ -9422,23 +9568,46 @@
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
       <c r="R200" s="3"/>
-      <c r="S200" s="3"/>
+      <c r="S200" s="3">
+        <v>1</v>
+      </c>
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
+      <c r="W200" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
+      <c r="A201" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" s="4">
+        <v>3</v>
+      </c>
+      <c r="D201" s="3">
+        <v>17</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
+      <c r="I201" s="3">
+        <v>1</v>
+      </c>
       <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
+      <c r="K201" s="3">
+        <v>1</v>
+      </c>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
       <c r="N201" s="3"/>
@@ -9450,17 +9619,36 @@
       <c r="T201" s="3"/>
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
+      <c r="W201" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
+      <c r="A202" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" s="4">
+        <v>3</v>
+      </c>
+      <c r="D202" s="3">
+        <v>17</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
+      <c r="I202" s="3">
+        <v>1</v>
+      </c>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
@@ -9474,17 +9662,36 @@
       <c r="T202" s="3"/>
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
+      <c r="W202" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
+      <c r="A203" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" s="4">
+        <v>3</v>
+      </c>
+      <c r="D203" s="3">
+        <v>17</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
+      <c r="I203" s="3">
+        <v>1</v>
+      </c>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
@@ -9498,17 +9705,36 @@
       <c r="T203" s="3"/>
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
+      <c r="W203" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
+      <c r="A204" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" s="4">
+        <v>3</v>
+      </c>
+      <c r="D204" s="3">
+        <v>17</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
+      <c r="I204" s="3">
+        <v>1</v>
+      </c>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
@@ -9522,17 +9748,36 @@
       <c r="T204" s="3"/>
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
+      <c r="W204" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
+      <c r="A205" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C205" s="4">
+        <v>3</v>
+      </c>
+      <c r="D205" s="3">
+        <v>17</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
+      <c r="I205" s="3">
+        <v>1</v>
+      </c>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
@@ -9546,17 +9791,36 @@
       <c r="T205" s="3"/>
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
+      <c r="W205" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
+      <c r="A206" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" s="4">
+        <v>3</v>
+      </c>
+      <c r="D206" s="3">
+        <v>18</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
+      <c r="I206" s="3">
+        <v>1</v>
+      </c>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
@@ -9566,23 +9830,46 @@
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
       <c r="R206" s="3"/>
-      <c r="S206" s="3"/>
+      <c r="S206" s="3">
+        <v>1</v>
+      </c>
       <c r="T206" s="3"/>
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
+      <c r="W206" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
+      <c r="A207" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C207" s="4">
+        <v>3</v>
+      </c>
+      <c r="D207" s="3">
+        <v>18</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
+      <c r="I207" s="3">
+        <v>1</v>
+      </c>
       <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
+      <c r="K207" s="3">
+        <v>1</v>
+      </c>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
       <c r="N207" s="3"/>
@@ -9594,20 +9881,41 @@
       <c r="T207" s="3"/>
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
+      <c r="W207" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
+      <c r="A208" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C208" s="4">
+        <v>3</v>
+      </c>
+      <c r="D208" s="3">
+        <v>18</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
+      <c r="I208" s="3">
+        <v>1</v>
+      </c>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
-      <c r="L208" s="3"/>
+      <c r="L208" s="3">
+        <v>2</v>
+      </c>
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
@@ -9618,19 +9926,40 @@
       <c r="T208" s="3"/>
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
+      <c r="W208" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C209" s="4">
+        <v>3</v>
+      </c>
+      <c r="D209" s="3">
+        <v>18</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
+      <c r="I209" s="3">
+        <v>1</v>
+      </c>
       <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
+      <c r="K209" s="3">
+        <v>1</v>
+      </c>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
       <c r="N209" s="3"/>
@@ -9642,17 +9971,36 @@
       <c r="T209" s="3"/>
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
-    </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
+      <c r="W209" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C210" s="4">
+        <v>3</v>
+      </c>
+      <c r="D210" s="3">
+        <v>18</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
+      <c r="I210" s="3">
+        <v>1</v>
+      </c>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
@@ -9666,17 +10014,36 @@
       <c r="T210" s="3"/>
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
-    </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
+      <c r="W210" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211" s="4">
+        <v>3</v>
+      </c>
+      <c r="D211" s="3">
+        <v>18</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
+      <c r="I211" s="3">
+        <v>1</v>
+      </c>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
@@ -9690,17 +10057,36 @@
       <c r="T211" s="3"/>
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
+      <c r="W211" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" s="4">
+        <v>3</v>
+      </c>
+      <c r="D212" s="3">
+        <v>18</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
+      <c r="I212" s="3">
+        <v>1</v>
+      </c>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
@@ -9710,24 +10096,49 @@
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
       <c r="R212" s="3"/>
-      <c r="S212" s="3"/>
+      <c r="S212" s="3">
+        <v>1</v>
+      </c>
       <c r="T212" s="3"/>
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
-    </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
+      <c r="W212" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C213" s="4">
+        <v>3</v>
+      </c>
+      <c r="D213" s="3">
+        <v>18</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
+      <c r="I213" s="3">
+        <v>1</v>
+      </c>
       <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
+      <c r="K213" s="3">
+        <v>1</v>
+      </c>
+      <c r="L213" s="3">
+        <v>1</v>
+      </c>
       <c r="M213" s="3"/>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
@@ -9738,19 +10149,40 @@
       <c r="T213" s="3"/>
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
-    </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
+      <c r="W213" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" s="4">
+        <v>3</v>
+      </c>
+      <c r="D214" s="3">
+        <v>18</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
+      <c r="I214" s="3">
+        <v>1</v>
+      </c>
       <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
+      <c r="K214" s="3">
+        <v>1</v>
+      </c>
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
       <c r="N214" s="3"/>
@@ -9762,23 +10194,44 @@
       <c r="T214" s="3"/>
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
-    </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
+      <c r="W214" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C215" s="4">
+        <v>3</v>
+      </c>
+      <c r="D215" s="3">
+        <v>18</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
+      <c r="I215" s="3">
+        <v>1</v>
+      </c>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
       <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
+      <c r="O215" s="3">
+        <v>1</v>
+      </c>
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
       <c r="R215" s="3"/>
@@ -9786,17 +10239,36 @@
       <c r="T215" s="3"/>
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
+      <c r="W215" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C216" s="4">
+        <v>3</v>
+      </c>
+      <c r="D216" s="3">
+        <v>18</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
+      <c r="I216" s="3">
+        <v>1</v>
+      </c>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
@@ -9810,20 +10282,41 @@
       <c r="T216" s="3"/>
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
-    </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
+      <c r="W216" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C217" s="4">
+        <v>3</v>
+      </c>
+      <c r="D217" s="3">
+        <v>18</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
+      <c r="I217" s="3">
+        <v>1</v>
+      </c>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
+      <c r="L217" s="3">
+        <v>1</v>
+      </c>
       <c r="M217" s="3"/>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
@@ -9834,45 +10327,91 @@
       <c r="T217" s="3"/>
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
+      <c r="W217" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" s="4">
+        <v>3</v>
+      </c>
+      <c r="D218" s="3">
+        <v>19</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H218" s="3">
+        <v>1</v>
+      </c>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
+      <c r="M218" s="3">
+        <v>1</v>
+      </c>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
       <c r="R218" s="3"/>
       <c r="S218" s="3"/>
-      <c r="T218" s="3"/>
+      <c r="T218" s="3">
+        <v>1</v>
+      </c>
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
-    </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
+      <c r="W218" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C219" s="4">
+        <v>3</v>
+      </c>
+      <c r="D219" s="3">
+        <v>19</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H219" s="3">
+        <v>1</v>
+      </c>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
+      <c r="L219" s="3">
+        <v>1</v>
+      </c>
+      <c r="M219" s="3">
+        <v>1</v>
+      </c>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
       <c r="P219" s="3"/>
@@ -9882,21 +10421,42 @@
       <c r="T219" s="3"/>
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
-    </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
+      <c r="W219" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C220" s="4">
+        <v>3</v>
+      </c>
+      <c r="D220" s="3">
+        <v>19</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H220" s="3">
+        <v>1</v>
+      </c>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
+      <c r="M220" s="3">
+        <v>1</v>
+      </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
       <c r="P220" s="3"/>
@@ -9906,21 +10466,42 @@
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
-    </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
+      <c r="W220" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221" s="4">
+        <v>3</v>
+      </c>
+      <c r="D221" s="3">
+        <v>19</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H221" s="3">
+        <v>1</v>
+      </c>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
+      <c r="M221" s="3">
+        <v>1</v>
+      </c>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
       <c r="P221" s="3"/>
@@ -9930,21 +10511,42 @@
       <c r="T221" s="3"/>
       <c r="U221" s="3"/>
       <c r="V221" s="3"/>
-    </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
+      <c r="W221" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C222" s="4">
+        <v>3</v>
+      </c>
+      <c r="D222" s="3">
+        <v>19</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H222" s="3">
+        <v>1</v>
+      </c>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
+      <c r="M222" s="3">
+        <v>1</v>
+      </c>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
       <c r="P222" s="3"/>
@@ -9954,19 +10556,44 @@
       <c r="T222" s="3"/>
       <c r="U222" s="3"/>
       <c r="V222" s="3"/>
-    </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
+      <c r="W222" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C223" s="4">
+        <v>3</v>
+      </c>
+      <c r="D223" s="3">
+        <v>19</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H223" s="3">
+        <v>1</v>
+      </c>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
+      <c r="K223" s="3">
+        <v>1</v>
+      </c>
       <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
+      <c r="M223" s="3">
+        <v>1</v>
+      </c>
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
       <c r="P223" s="3"/>
@@ -9976,18 +10603,37 @@
       <c r="T223" s="3"/>
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
-    </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
+      <c r="W223" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C224" s="4">
+        <v>3</v>
+      </c>
+      <c r="D224" s="3">
+        <v>19</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
+      <c r="J224" s="3">
+        <v>1</v>
+      </c>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
@@ -9996,22 +10642,43 @@
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
       <c r="R224" s="3"/>
-      <c r="S224" s="3"/>
+      <c r="S224" s="3">
+        <v>1</v>
+      </c>
       <c r="T224" s="3"/>
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
-    </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
+      <c r="W224" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C225" s="4">
+        <v>3</v>
+      </c>
+      <c r="D225" s="3">
+        <v>19</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
+      <c r="J225" s="3">
+        <v>1</v>
+      </c>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
@@ -10024,18 +10691,37 @@
       <c r="T225" s="3"/>
       <c r="U225" s="3"/>
       <c r="V225" s="3"/>
-    </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
+      <c r="W225" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C226" s="4">
+        <v>3</v>
+      </c>
+      <c r="D226" s="3">
+        <v>19</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
+      <c r="J226" s="3">
+        <v>1</v>
+      </c>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
       <c r="M226" s="3"/>
@@ -10048,18 +10734,37 @@
       <c r="T226" s="3"/>
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
-    </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
+      <c r="W226" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227" s="4">
+        <v>3</v>
+      </c>
+      <c r="D227" s="3">
+        <v>19</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
+      <c r="J227" s="3">
+        <v>1</v>
+      </c>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
@@ -10072,42 +10777,82 @@
       <c r="T227" s="3"/>
       <c r="U227" s="3"/>
       <c r="V227" s="3"/>
-    </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
+      <c r="W227" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C228" s="4">
+        <v>3</v>
+      </c>
+      <c r="D228" s="3">
+        <v>19</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
+      <c r="J228" s="3">
+        <v>1</v>
+      </c>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
       <c r="N228" s="3"/>
       <c r="O228" s="3"/>
-      <c r="P228" s="3"/>
+      <c r="P228" s="3">
+        <v>1</v>
+      </c>
       <c r="Q228" s="3"/>
       <c r="R228" s="3"/>
       <c r="S228" s="3"/>
       <c r="T228" s="3"/>
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
-    </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
+      <c r="W228" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C229" s="4">
+        <v>3</v>
+      </c>
+      <c r="D229" s="3">
+        <v>19</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
+      <c r="J229" s="3">
+        <v>1</v>
+      </c>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
@@ -10120,18 +10865,37 @@
       <c r="T229" s="3"/>
       <c r="U229" s="3"/>
       <c r="V229" s="3"/>
-    </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
+      <c r="W229" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C230" s="4">
+        <v>3</v>
+      </c>
+      <c r="D230" s="3">
+        <v>20</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
+      <c r="J230" s="3">
+        <v>1</v>
+      </c>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
@@ -10140,24 +10904,47 @@
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
       <c r="R230" s="3"/>
-      <c r="S230" s="3"/>
+      <c r="S230" s="3">
+        <v>3</v>
+      </c>
       <c r="T230" s="3"/>
       <c r="U230" s="3"/>
       <c r="V230" s="3"/>
-    </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
+      <c r="W230" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C231" s="4">
+        <v>3</v>
+      </c>
+      <c r="D231" s="3">
+        <v>20</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
+      <c r="J231" s="3">
+        <v>1</v>
+      </c>
       <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
+      <c r="L231" s="3">
+        <v>1</v>
+      </c>
       <c r="M231" s="3"/>
       <c r="N231" s="3"/>
       <c r="O231" s="3"/>
@@ -10168,18 +10955,37 @@
       <c r="T231" s="3"/>
       <c r="U231" s="3"/>
       <c r="V231" s="3"/>
-    </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
+      <c r="W231" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C232" s="4">
+        <v>3</v>
+      </c>
+      <c r="D232" s="3">
+        <v>20</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
+      <c r="J232" s="3">
+        <v>1</v>
+      </c>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
@@ -10192,18 +10998,37 @@
       <c r="T232" s="3"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
-    </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
+      <c r="W232" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233" s="4">
+        <v>3</v>
+      </c>
+      <c r="D233" s="3">
+        <v>20</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
+      <c r="J233" s="3">
+        <v>1</v>
+      </c>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3"/>
@@ -10216,22 +11041,43 @@
       <c r="T233" s="3"/>
       <c r="U233" s="3"/>
       <c r="V233" s="3"/>
-    </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
+      <c r="W233" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C234" s="4">
+        <v>3</v>
+      </c>
+      <c r="D234" s="3">
+        <v>20</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
+      <c r="J234" s="3">
+        <v>1</v>
+      </c>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
       <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
+      <c r="N234" s="3">
+        <v>1</v>
+      </c>
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
       <c r="Q234" s="3"/>
@@ -10240,19 +11086,40 @@
       <c r="T234" s="3"/>
       <c r="U234" s="3"/>
       <c r="V234" s="3"/>
-    </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
+      <c r="W234" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C235" s="4">
+        <v>3</v>
+      </c>
+      <c r="D235" s="3">
+        <v>20</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
+      <c r="J235" s="3">
+        <v>1</v>
+      </c>
+      <c r="K235" s="3">
+        <v>1</v>
+      </c>
       <c r="L235" s="3"/>
       <c r="M235" s="3"/>
       <c r="N235" s="3"/>
@@ -10264,16 +11131,35 @@
       <c r="T235" s="3"/>
       <c r="U235" s="3"/>
       <c r="V235" s="3"/>
-    </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
+      <c r="W235" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C236" s="4">
+        <v>3</v>
+      </c>
+      <c r="D236" s="3">
+        <v>20</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H236" s="3">
+        <v>1</v>
+      </c>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -10284,24 +11170,49 @@
       <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
       <c r="R236" s="3"/>
-      <c r="S236" s="3"/>
+      <c r="S236" s="3">
+        <v>1</v>
+      </c>
       <c r="T236" s="3"/>
       <c r="U236" s="3"/>
       <c r="V236" s="3"/>
-    </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
+      <c r="W236" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C237" s="4">
+        <v>3</v>
+      </c>
+      <c r="D237" s="3">
+        <v>20</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H237" s="3">
+        <v>1</v>
+      </c>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
-      <c r="L237" s="3"/>
+      <c r="K237" s="3">
+        <v>1</v>
+      </c>
+      <c r="L237" s="3">
+        <v>1</v>
+      </c>
       <c r="M237" s="3"/>
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
@@ -10312,19 +11223,40 @@
       <c r="T237" s="3"/>
       <c r="U237" s="3"/>
       <c r="V237" s="3"/>
-    </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
+      <c r="W237" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C238" s="4">
+        <v>3</v>
+      </c>
+      <c r="D238" s="3">
+        <v>20</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H238" s="3">
+        <v>1</v>
+      </c>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
+      <c r="K238" s="3">
+        <v>1</v>
+      </c>
       <c r="L238" s="3"/>
       <c r="M238" s="3"/>
       <c r="N238" s="3"/>
@@ -10336,16 +11268,35 @@
       <c r="T238" s="3"/>
       <c r="U238" s="3"/>
       <c r="V238" s="3"/>
-    </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
+      <c r="W238" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C239" s="4">
+        <v>3</v>
+      </c>
+      <c r="D239" s="3">
+        <v>20</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H239" s="3">
+        <v>1</v>
+      </c>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
@@ -10360,16 +11311,35 @@
       <c r="T239" s="3"/>
       <c r="U239" s="3"/>
       <c r="V239" s="3"/>
-    </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="4"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
+      <c r="W239" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C240" s="4">
+        <v>3</v>
+      </c>
+      <c r="D240" s="3">
+        <v>20</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H240" s="3">
+        <v>1</v>
+      </c>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
@@ -10384,16 +11354,35 @@
       <c r="T240" s="3"/>
       <c r="U240" s="3"/>
       <c r="V240" s="3"/>
-    </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
+      <c r="W240" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C241" s="4">
+        <v>3</v>
+      </c>
+      <c r="D241" s="3">
+        <v>20</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H241" s="3">
+        <v>1</v>
+      </c>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
@@ -10408,21 +11397,42 @@
       <c r="T241" s="3"/>
       <c r="U241" s="3"/>
       <c r="V241" s="3"/>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
+      <c r="W241" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C242" s="4">
+        <v>3</v>
+      </c>
+      <c r="D242" s="3">
+        <v>21</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H242" s="3">
+        <v>1</v>
+      </c>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
-      <c r="M242" s="3"/>
+      <c r="M242" s="3">
+        <v>1</v>
+      </c>
       <c r="N242" s="3"/>
       <c r="O242" s="3"/>
       <c r="P242" s="3"/>
@@ -10432,21 +11442,44 @@
       <c r="T242" s="3"/>
       <c r="U242" s="3"/>
       <c r="V242" s="3"/>
-    </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
+      <c r="W242" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C243" s="4">
+        <v>3</v>
+      </c>
+      <c r="D243" s="3">
+        <v>21</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H243" s="3">
+        <v>1</v>
+      </c>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
+      <c r="K243" s="3">
+        <v>1</v>
+      </c>
       <c r="L243" s="3"/>
-      <c r="M243" s="3"/>
+      <c r="M243" s="3">
+        <v>1</v>
+      </c>
       <c r="N243" s="3"/>
       <c r="O243" s="3"/>
       <c r="P243" s="3"/>
@@ -10456,21 +11489,42 @@
       <c r="T243" s="3"/>
       <c r="U243" s="3"/>
       <c r="V243" s="3"/>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
+      <c r="W243" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C244" s="4">
+        <v>3</v>
+      </c>
+      <c r="D244" s="3">
+        <v>21</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H244" s="3">
+        <v>1</v>
+      </c>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
-      <c r="M244" s="3"/>
+      <c r="M244" s="3">
+        <v>1</v>
+      </c>
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
       <c r="P244" s="3"/>
@@ -10480,21 +11534,42 @@
       <c r="T244" s="3"/>
       <c r="U244" s="3"/>
       <c r="V244" s="3"/>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
+      <c r="W244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C245" s="4">
+        <v>3</v>
+      </c>
+      <c r="D245" s="3">
+        <v>21</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H245" s="3">
+        <v>1</v>
+      </c>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
-      <c r="M245" s="3"/>
+      <c r="M245" s="3">
+        <v>1</v>
+      </c>
       <c r="N245" s="3"/>
       <c r="O245" s="3"/>
       <c r="P245" s="3"/>
@@ -10504,21 +11579,42 @@
       <c r="T245" s="3"/>
       <c r="U245" s="3"/>
       <c r="V245" s="3"/>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
+      <c r="W245" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C246" s="4">
+        <v>3</v>
+      </c>
+      <c r="D246" s="3">
+        <v>21</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H246" s="3">
+        <v>1</v>
+      </c>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
-      <c r="M246" s="3"/>
+      <c r="M246" s="3">
+        <v>1</v>
+      </c>
       <c r="N246" s="3"/>
       <c r="O246" s="3"/>
       <c r="P246" s="3"/>
@@ -10528,21 +11624,44 @@
       <c r="T246" s="3"/>
       <c r="U246" s="3"/>
       <c r="V246" s="3"/>
-    </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
+      <c r="W246" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C247" s="4">
+        <v>3</v>
+      </c>
+      <c r="D247" s="3">
+        <v>21</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H247" s="3">
+        <v>1</v>
+      </c>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3"/>
+      <c r="L247" s="3">
+        <v>1</v>
+      </c>
+      <c r="M247" s="3">
+        <v>1</v>
+      </c>
       <c r="N247" s="3"/>
       <c r="O247" s="3"/>
       <c r="P247" s="3"/>
@@ -10552,18 +11671,37 @@
       <c r="T247" s="3"/>
       <c r="U247" s="3"/>
       <c r="V247" s="3"/>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="4"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
+      <c r="W247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C248" s="4">
+        <v>3</v>
+      </c>
+      <c r="D248" s="3">
+        <v>21</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
+      <c r="J248" s="3">
+        <v>1</v>
+      </c>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
       <c r="M248" s="3"/>
@@ -10572,22 +11710,43 @@
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
       <c r="R248" s="3"/>
-      <c r="S248" s="3"/>
+      <c r="S248" s="3">
+        <v>1</v>
+      </c>
       <c r="T248" s="3"/>
       <c r="U248" s="3"/>
       <c r="V248" s="3"/>
-    </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="4"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
+      <c r="W248" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C249" s="4">
+        <v>3</v>
+      </c>
+      <c r="D249" s="3">
+        <v>21</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
-      <c r="J249" s="3"/>
+      <c r="J249" s="3">
+        <v>1</v>
+      </c>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
       <c r="M249" s="3"/>
@@ -10600,18 +11759,37 @@
       <c r="T249" s="3"/>
       <c r="U249" s="3"/>
       <c r="V249" s="3"/>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
+      <c r="W249" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C250" s="4">
+        <v>3</v>
+      </c>
+      <c r="D250" s="3">
+        <v>21</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
+      <c r="J250" s="3">
+        <v>1</v>
+      </c>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
       <c r="M250" s="3"/>
@@ -10624,18 +11802,37 @@
       <c r="T250" s="3"/>
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
+      <c r="W250" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C251" s="4">
+        <v>3</v>
+      </c>
+      <c r="D251" s="3">
+        <v>21</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
+      <c r="J251" s="3">
+        <v>1</v>
+      </c>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
       <c r="M251" s="3"/>
@@ -10648,18 +11845,37 @@
       <c r="T251" s="3"/>
       <c r="U251" s="3"/>
       <c r="V251" s="3"/>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
+      <c r="W251" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C252" s="4">
+        <v>3</v>
+      </c>
+      <c r="D252" s="3">
+        <v>21</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
+      <c r="J252" s="3">
+        <v>1</v>
+      </c>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
       <c r="M252" s="3"/>
@@ -10672,18 +11888,37 @@
       <c r="T252" s="3"/>
       <c r="U252" s="3"/>
       <c r="V252" s="3"/>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
+      <c r="W252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C253" s="4">
+        <v>3</v>
+      </c>
+      <c r="D253" s="3">
+        <v>21</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
+      <c r="J253" s="3">
+        <v>1</v>
+      </c>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
       <c r="M253" s="3"/>
@@ -10696,18 +11931,37 @@
       <c r="T253" s="3"/>
       <c r="U253" s="3"/>
       <c r="V253" s="3"/>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
+      <c r="W253" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C254" s="4">
+        <v>3</v>
+      </c>
+      <c r="D254" s="3">
+        <v>22</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
+      <c r="J254" s="3">
+        <v>1</v>
+      </c>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
       <c r="M254" s="3"/>
@@ -10716,24 +11970,49 @@
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
-      <c r="S254" s="3"/>
-      <c r="T254" s="3"/>
+      <c r="S254" s="3">
+        <v>4</v>
+      </c>
+      <c r="T254" s="3">
+        <v>1</v>
+      </c>
       <c r="U254" s="3"/>
       <c r="V254" s="3"/>
-    </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
+      <c r="W254" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C255" s="4">
+        <v>3</v>
+      </c>
+      <c r="D255" s="3">
+        <v>22</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
+      <c r="J255" s="3">
+        <v>1</v>
+      </c>
       <c r="K255" s="3"/>
-      <c r="L255" s="3"/>
+      <c r="L255" s="3">
+        <v>1</v>
+      </c>
       <c r="M255" s="3"/>
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
@@ -10744,18 +12023,37 @@
       <c r="T255" s="3"/>
       <c r="U255" s="3"/>
       <c r="V255" s="3"/>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
+      <c r="W255" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C256" s="4">
+        <v>3</v>
+      </c>
+      <c r="D256" s="3">
+        <v>22</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
+      <c r="J256" s="3">
+        <v>1</v>
+      </c>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
       <c r="M256" s="3"/>
@@ -10768,18 +12066,37 @@
       <c r="T256" s="3"/>
       <c r="U256" s="3"/>
       <c r="V256" s="3"/>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
+      <c r="W256" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C257" s="4">
+        <v>3</v>
+      </c>
+      <c r="D257" s="3">
+        <v>22</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
+      <c r="J257" s="3">
+        <v>1</v>
+      </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
       <c r="M257" s="3"/>
@@ -10792,19 +12109,40 @@
       <c r="T257" s="3"/>
       <c r="U257" s="3"/>
       <c r="V257" s="3"/>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
+      <c r="W257" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C258" s="4">
+        <v>3</v>
+      </c>
+      <c r="D258" s="3">
+        <v>22</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
-      <c r="K258" s="3"/>
+      <c r="J258" s="3">
+        <v>1</v>
+      </c>
+      <c r="K258" s="3">
+        <v>1</v>
+      </c>
       <c r="L258" s="3"/>
       <c r="M258" s="3"/>
       <c r="N258" s="3"/>
@@ -10816,18 +12154,37 @@
       <c r="T258" s="3"/>
       <c r="U258" s="3"/>
       <c r="V258" s="3"/>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
-      <c r="G259" s="3"/>
+      <c r="W258" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C259" s="4">
+        <v>3</v>
+      </c>
+      <c r="D259" s="3">
+        <v>22</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
+      <c r="J259" s="3">
+        <v>1</v>
+      </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
       <c r="M259" s="3"/>
@@ -10840,16 +12197,35 @@
       <c r="T259" s="3"/>
       <c r="U259" s="3"/>
       <c r="V259" s="3"/>
-    </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
+      <c r="W259" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C260" s="4">
+        <v>3</v>
+      </c>
+      <c r="D260" s="3">
+        <v>22</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H260" s="3">
+        <v>1</v>
+      </c>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
@@ -10860,23 +12236,46 @@
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
       <c r="R260" s="3"/>
-      <c r="S260" s="3"/>
+      <c r="S260" s="3">
+        <v>1</v>
+      </c>
       <c r="T260" s="3"/>
       <c r="U260" s="3"/>
       <c r="V260" s="3"/>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
+      <c r="W260" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C261" s="4">
+        <v>3</v>
+      </c>
+      <c r="D261" s="3">
+        <v>22</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H261" s="3">
+        <v>1</v>
+      </c>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="3"/>
+      <c r="K261" s="3">
+        <v>2</v>
+      </c>
       <c r="L261" s="3"/>
       <c r="M261" s="3"/>
       <c r="N261" s="3"/>
@@ -10888,20 +12287,43 @@
       <c r="T261" s="3"/>
       <c r="U261" s="3"/>
       <c r="V261" s="3"/>
-    </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="3"/>
-      <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
+      <c r="W261" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C262" s="4">
+        <v>3</v>
+      </c>
+      <c r="D262" s="3">
+        <v>22</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H262" s="3">
+        <v>1</v>
+      </c>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="3"/>
-      <c r="L262" s="3"/>
+      <c r="K262" s="3">
+        <v>1</v>
+      </c>
+      <c r="L262" s="3">
+        <v>1</v>
+      </c>
       <c r="M262" s="3"/>
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
@@ -10912,20 +12334,41 @@
       <c r="T262" s="3"/>
       <c r="U262" s="3"/>
       <c r="V262" s="3"/>
-    </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
-      <c r="F263" s="3"/>
-      <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
+      <c r="W262" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C263" s="4">
+        <v>3</v>
+      </c>
+      <c r="D263" s="3">
+        <v>22</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H263" s="3">
+        <v>1</v>
+      </c>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
-      <c r="L263" s="3"/>
+      <c r="L263" s="3">
+        <v>1</v>
+      </c>
       <c r="M263" s="3"/>
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
@@ -10936,20 +12379,41 @@
       <c r="T263" s="3"/>
       <c r="U263" s="3"/>
       <c r="V263" s="3"/>
-    </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="4"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
+      <c r="W263" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C264" s="4">
+        <v>3</v>
+      </c>
+      <c r="D264" s="3">
+        <v>22</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H264" s="3">
+        <v>1</v>
+      </c>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
-      <c r="L264" s="3"/>
+      <c r="L264" s="3">
+        <v>1</v>
+      </c>
       <c r="M264" s="3"/>
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
@@ -10960,19 +12424,40 @@
       <c r="T264" s="3"/>
       <c r="U264" s="3"/>
       <c r="V264" s="3"/>
-    </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="4"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
+      <c r="W264" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C265" s="4">
+        <v>3</v>
+      </c>
+      <c r="D265" s="3">
+        <v>22</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H265" s="3">
+        <v>1</v>
+      </c>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
+      <c r="K265" s="3">
+        <v>1</v>
+      </c>
       <c r="L265" s="3"/>
       <c r="M265" s="3"/>
       <c r="N265" s="3"/>
@@ -10984,45 +12469,93 @@
       <c r="T265" s="3"/>
       <c r="U265" s="3"/>
       <c r="V265" s="3"/>
-    </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
-      <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
+      <c r="W265" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C266" s="4">
+        <v>3</v>
+      </c>
+      <c r="D266" s="3">
+        <v>23</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H266" s="3">
+        <v>1</v>
+      </c>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
-      <c r="M266" s="3"/>
+      <c r="M266" s="3">
+        <v>1</v>
+      </c>
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
       <c r="P266" s="3"/>
       <c r="Q266" s="3"/>
       <c r="R266" s="3"/>
       <c r="S266" s="3"/>
-      <c r="T266" s="3"/>
+      <c r="T266" s="3">
+        <v>2</v>
+      </c>
       <c r="U266" s="3"/>
       <c r="V266" s="3"/>
-    </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
-      <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
+      <c r="W266" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C267" s="4">
+        <v>3</v>
+      </c>
+      <c r="D267" s="3">
+        <v>23</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H267" s="3">
+        <v>1</v>
+      </c>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="3"/>
-      <c r="L267" s="3"/>
-      <c r="M267" s="3"/>
+      <c r="K267" s="3">
+        <v>1</v>
+      </c>
+      <c r="L267" s="3">
+        <v>2</v>
+      </c>
+      <c r="M267" s="3">
+        <v>1</v>
+      </c>
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
       <c r="P267" s="3"/>
@@ -11032,21 +12565,42 @@
       <c r="T267" s="3"/>
       <c r="U267" s="3"/>
       <c r="V267" s="3"/>
-    </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
+      <c r="W267" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268" s="4">
+        <v>3</v>
+      </c>
+      <c r="D268" s="3">
+        <v>23</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H268" s="3">
+        <v>1</v>
+      </c>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
-      <c r="M268" s="3"/>
+      <c r="M268" s="3">
+        <v>1</v>
+      </c>
       <c r="N268" s="3"/>
       <c r="O268" s="3"/>
       <c r="P268" s="3"/>
@@ -11056,21 +12610,44 @@
       <c r="T268" s="3"/>
       <c r="U268" s="3"/>
       <c r="V268" s="3"/>
-    </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
+      <c r="W268" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C269" s="4">
+        <v>3</v>
+      </c>
+      <c r="D269" s="3">
+        <v>23</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H269" s="3">
+        <v>1</v>
+      </c>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="3"/>
+      <c r="K269" s="3">
+        <v>1</v>
+      </c>
       <c r="L269" s="3"/>
-      <c r="M269" s="3"/>
+      <c r="M269" s="3">
+        <v>1</v>
+      </c>
       <c r="N269" s="3"/>
       <c r="O269" s="3"/>
       <c r="P269" s="3"/>
@@ -11080,21 +12657,44 @@
       <c r="T269" s="3"/>
       <c r="U269" s="3"/>
       <c r="V269" s="3"/>
-    </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="4"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
+      <c r="W269" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C270" s="4">
+        <v>3</v>
+      </c>
+      <c r="D270" s="3">
+        <v>23</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H270" s="3">
+        <v>1</v>
+      </c>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="3"/>
+      <c r="K270" s="3">
+        <v>1</v>
+      </c>
       <c r="L270" s="3"/>
-      <c r="M270" s="3"/>
+      <c r="M270" s="3">
+        <v>1</v>
+      </c>
       <c r="N270" s="3"/>
       <c r="O270" s="3"/>
       <c r="P270" s="3"/>
@@ -11104,21 +12704,42 @@
       <c r="T270" s="3"/>
       <c r="U270" s="3"/>
       <c r="V270" s="3"/>
-    </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="3"/>
-      <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
+      <c r="W270" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C271" s="4">
+        <v>3</v>
+      </c>
+      <c r="D271" s="3">
+        <v>23</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H271" s="3">
+        <v>1</v>
+      </c>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
-      <c r="M271" s="3"/>
+      <c r="M271" s="3">
+        <v>1</v>
+      </c>
       <c r="N271" s="3"/>
       <c r="O271" s="3"/>
       <c r="P271" s="3"/>
@@ -11128,18 +12749,37 @@
       <c r="T271" s="3"/>
       <c r="U271" s="3"/>
       <c r="V271" s="3"/>
-    </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
-      <c r="G272" s="3"/>
+      <c r="W271" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C272" s="4">
+        <v>3</v>
+      </c>
+      <c r="D272" s="3">
+        <v>23</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
-      <c r="J272" s="3"/>
+      <c r="J272" s="3">
+        <v>1</v>
+      </c>
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
       <c r="M272" s="3"/>
@@ -11148,22 +12788,45 @@
       <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
       <c r="R272" s="3"/>
-      <c r="S272" s="3"/>
-      <c r="T272" s="3"/>
+      <c r="S272" s="3">
+        <v>3</v>
+      </c>
+      <c r="T272" s="3">
+        <v>1</v>
+      </c>
       <c r="U272" s="3"/>
       <c r="V272" s="3"/>
-    </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
+      <c r="W272" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C273" s="4">
+        <v>3</v>
+      </c>
+      <c r="D273" s="3">
+        <v>23</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
-      <c r="J273" s="3"/>
+      <c r="J273" s="3">
+        <v>1</v>
+      </c>
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
       <c r="M273" s="3"/>
@@ -11176,18 +12839,37 @@
       <c r="T273" s="3"/>
       <c r="U273" s="3"/>
       <c r="V273" s="3"/>
-    </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
-      <c r="G274" s="3"/>
+      <c r="W273" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C274" s="4">
+        <v>3</v>
+      </c>
+      <c r="D274" s="3">
+        <v>23</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
-      <c r="J274" s="3"/>
+      <c r="J274" s="3">
+        <v>1</v>
+      </c>
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
       <c r="M274" s="3"/>
@@ -11200,18 +12882,37 @@
       <c r="T274" s="3"/>
       <c r="U274" s="3"/>
       <c r="V274" s="3"/>
-    </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
+      <c r="W274" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C275" s="4">
+        <v>3</v>
+      </c>
+      <c r="D275" s="3">
+        <v>23</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
-      <c r="J275" s="3"/>
+      <c r="J275" s="3">
+        <v>1</v>
+      </c>
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
       <c r="M275" s="3"/>
@@ -11224,18 +12925,37 @@
       <c r="T275" s="3"/>
       <c r="U275" s="3"/>
       <c r="V275" s="3"/>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
+      <c r="W275" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C276" s="4">
+        <v>3</v>
+      </c>
+      <c r="D276" s="3">
+        <v>23</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
+      <c r="J276" s="3">
+        <v>1</v>
+      </c>
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
       <c r="M276" s="3"/>
@@ -11248,23 +12968,44 @@
       <c r="T276" s="3"/>
       <c r="U276" s="3"/>
       <c r="V276" s="3"/>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="4"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
+      <c r="W276" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C277" s="4">
+        <v>3</v>
+      </c>
+      <c r="D277" s="3">
+        <v>23</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
-      <c r="J277" s="3"/>
+      <c r="J277" s="3">
+        <v>1</v>
+      </c>
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
       <c r="M277" s="3"/>
       <c r="N277" s="3"/>
-      <c r="O277" s="3"/>
+      <c r="O277" s="3">
+        <v>1</v>
+      </c>
       <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
       <c r="R277" s="3"/>
@@ -11272,16 +13013,35 @@
       <c r="T277" s="3"/>
       <c r="U277" s="3"/>
       <c r="V277" s="3"/>
-    </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
-      <c r="F278" s="3"/>
-      <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
+      <c r="W277" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C278" s="4">
+        <v>3</v>
+      </c>
+      <c r="D278" s="3">
+        <v>24</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H278" s="3">
+        <v>1</v>
+      </c>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
@@ -11292,20 +13052,43 @@
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
       <c r="R278" s="3"/>
-      <c r="S278" s="3"/>
-      <c r="T278" s="3"/>
+      <c r="S278" s="3">
+        <v>1</v>
+      </c>
+      <c r="T278" s="3">
+        <v>2</v>
+      </c>
       <c r="U278" s="3"/>
       <c r="V278" s="3"/>
-    </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="4"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
-      <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
+      <c r="W278" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C279" s="4">
+        <v>3</v>
+      </c>
+      <c r="D279" s="3">
+        <v>24</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H279" s="3">
+        <v>1</v>
+      </c>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
@@ -11320,16 +13103,35 @@
       <c r="T279" s="3"/>
       <c r="U279" s="3"/>
       <c r="V279" s="3"/>
-    </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="4"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
-      <c r="F280" s="3"/>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
+      <c r="W279" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C280" s="4">
+        <v>3</v>
+      </c>
+      <c r="D280" s="3">
+        <v>24</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H280" s="3">
+        <v>1</v>
+      </c>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
@@ -11344,16 +13146,35 @@
       <c r="T280" s="3"/>
       <c r="U280" s="3"/>
       <c r="V280" s="3"/>
-    </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="4"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="3"/>
-      <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
+      <c r="W280" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C281" s="4">
+        <v>3</v>
+      </c>
+      <c r="D281" s="3">
+        <v>24</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H281" s="3">
+        <v>1</v>
+      </c>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
@@ -11368,23 +13189,48 @@
       <c r="T281" s="3"/>
       <c r="U281" s="3"/>
       <c r="V281" s="3"/>
-    </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
+      <c r="W281" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C282" s="4">
+        <v>3</v>
+      </c>
+      <c r="D282" s="3">
+        <v>24</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H282" s="3">
+        <v>1</v>
+      </c>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="3"/>
-      <c r="L282" s="3"/>
+      <c r="K282" s="3">
+        <v>2</v>
+      </c>
+      <c r="L282" s="3">
+        <v>1</v>
+      </c>
       <c r="M282" s="3"/>
       <c r="N282" s="3"/>
-      <c r="O282" s="3"/>
+      <c r="O282" s="3">
+        <v>1</v>
+      </c>
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
       <c r="R282" s="3"/>
@@ -11392,20 +13238,43 @@
       <c r="T282" s="3"/>
       <c r="U282" s="3"/>
       <c r="V282" s="3"/>
-    </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="4"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
+      <c r="W282" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C283" s="4">
+        <v>3</v>
+      </c>
+      <c r="D283" s="3">
+        <v>24</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H283" s="3">
+        <v>1</v>
+      </c>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="3"/>
-      <c r="L283" s="3"/>
+      <c r="K283" s="3">
+        <v>1</v>
+      </c>
+      <c r="L283" s="3">
+        <v>1</v>
+      </c>
       <c r="M283" s="3"/>
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
@@ -11416,18 +13285,37 @@
       <c r="T283" s="3"/>
       <c r="U283" s="3"/>
       <c r="V283" s="3"/>
-    </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="4"/>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
-      <c r="G284" s="3"/>
+      <c r="W283" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C284" s="4">
+        <v>3</v>
+      </c>
+      <c r="D284" s="3">
+        <v>24</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
-      <c r="J284" s="3"/>
+      <c r="J284" s="3">
+        <v>1</v>
+      </c>
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
       <c r="M284" s="3"/>
@@ -11436,22 +13324,45 @@
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
       <c r="R284" s="3"/>
-      <c r="S284" s="3"/>
-      <c r="T284" s="3"/>
+      <c r="S284" s="3">
+        <v>3</v>
+      </c>
+      <c r="T284" s="3">
+        <v>1</v>
+      </c>
       <c r="U284" s="3"/>
       <c r="V284" s="3"/>
-    </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
-      <c r="F285" s="3"/>
-      <c r="G285" s="3"/>
+      <c r="W284" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C285" s="4">
+        <v>3</v>
+      </c>
+      <c r="D285" s="3">
+        <v>24</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
-      <c r="J285" s="3"/>
+      <c r="J285" s="3">
+        <v>1</v>
+      </c>
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
       <c r="M285" s="3"/>
@@ -11464,18 +13375,37 @@
       <c r="T285" s="3"/>
       <c r="U285" s="3"/>
       <c r="V285" s="3"/>
-    </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
-      <c r="G286" s="3"/>
+      <c r="W285" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C286" s="4">
+        <v>3</v>
+      </c>
+      <c r="D286" s="3">
+        <v>24</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
-      <c r="J286" s="3"/>
+      <c r="J286" s="3">
+        <v>1</v>
+      </c>
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
       <c r="M286" s="3"/>
@@ -11488,19 +13418,40 @@
       <c r="T286" s="3"/>
       <c r="U286" s="3"/>
       <c r="V286" s="3"/>
-    </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
-      <c r="F287" s="3"/>
-      <c r="G287" s="3"/>
+      <c r="W286" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C287" s="4">
+        <v>3</v>
+      </c>
+      <c r="D287" s="3">
+        <v>24</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
-      <c r="J287" s="3"/>
-      <c r="K287" s="3"/>
+      <c r="J287" s="3">
+        <v>1</v>
+      </c>
+      <c r="K287" s="3">
+        <v>1</v>
+      </c>
       <c r="L287" s="3"/>
       <c r="M287" s="3"/>
       <c r="N287" s="3"/>
@@ -11512,20 +13463,41 @@
       <c r="T287" s="3"/>
       <c r="U287" s="3"/>
       <c r="V287" s="3"/>
-    </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
-      <c r="F288" s="3"/>
-      <c r="G288" s="3"/>
+      <c r="W287" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C288" s="4">
+        <v>3</v>
+      </c>
+      <c r="D288" s="3">
+        <v>24</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
-      <c r="J288" s="3"/>
+      <c r="J288" s="3">
+        <v>1</v>
+      </c>
       <c r="K288" s="3"/>
-      <c r="L288" s="3"/>
+      <c r="L288" s="3">
+        <v>1</v>
+      </c>
       <c r="M288" s="3"/>
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
@@ -11536,18 +13508,37 @@
       <c r="T288" s="3"/>
       <c r="U288" s="3"/>
       <c r="V288" s="3"/>
-    </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
-      <c r="F289" s="3"/>
-      <c r="G289" s="3"/>
+      <c r="W288" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C289" s="4">
+        <v>3</v>
+      </c>
+      <c r="D289" s="3">
+        <v>24</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
-      <c r="J289" s="3"/>
+      <c r="J289" s="3">
+        <v>1</v>
+      </c>
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
       <c r="M289" s="3"/>
@@ -11560,8 +13551,11 @@
       <c r="T289" s="3"/>
       <c r="U289" s="3"/>
       <c r="V289" s="3"/>
-    </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W289" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="4"/>
@@ -11585,7 +13579,7 @@
       <c r="U290" s="3"/>
       <c r="V290" s="3"/>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="4"/>
@@ -11609,7 +13603,7 @@
       <c r="U291" s="3"/>
       <c r="V291" s="3"/>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="4"/>
@@ -11633,7 +13627,7 @@
       <c r="U292" s="3"/>
       <c r="V292" s="3"/>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="4"/>
@@ -11657,7 +13651,7 @@
       <c r="U293" s="3"/>
       <c r="V293" s="3"/>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="4"/>
@@ -11681,7 +13675,7 @@
       <c r="U294" s="3"/>
       <c r="V294" s="3"/>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="4"/>
@@ -11705,7 +13699,7 @@
       <c r="U295" s="3"/>
       <c r="V295" s="3"/>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="4"/>
@@ -11729,7 +13723,7 @@
       <c r="U296" s="3"/>
       <c r="V296" s="3"/>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="4"/>
@@ -11753,7 +13747,7 @@
       <c r="U297" s="3"/>
       <c r="V297" s="3"/>
     </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="4"/>
@@ -11777,7 +13771,7 @@
       <c r="U298" s="3"/>
       <c r="V298" s="3"/>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="4"/>
@@ -11801,7 +13795,7 @@
       <c r="U299" s="3"/>
       <c r="V299" s="3"/>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="4"/>
@@ -11825,7 +13819,7 @@
       <c r="U300" s="3"/>
       <c r="V300" s="3"/>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="4"/>
@@ -11849,7 +13843,7 @@
       <c r="U301" s="3"/>
       <c r="V301" s="3"/>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="4"/>
@@ -11873,7 +13867,7 @@
       <c r="U302" s="3"/>
       <c r="V302" s="3"/>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="4"/>
@@ -11897,7 +13891,7 @@
       <c r="U303" s="3"/>
       <c r="V303" s="3"/>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="4"/>
@@ -16172,7 +18166,6 @@
       <c r="G847" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W193" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:V13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>

--- a/data/copas_mr.xlsx
+++ b/data/copas_mr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tales\OneDrive\Documentos\GitHub\mr_league_dashboard_2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839C4A6-CA0C-4C10-A5A9-E983790FD3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C050E300-F794-4968-8F49-B8F03A7F9577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A291" sqref="A291"/>
+      <selection pane="bottomLeft" activeCell="V279" sqref="V279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13061,7 +13061,7 @@
       <c r="U278" s="3"/>
       <c r="V278" s="3"/>
       <c r="W278" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="279" spans="1:23" x14ac:dyDescent="0.25">
@@ -13104,7 +13104,7 @@
       <c r="U279" s="3"/>
       <c r="V279" s="3"/>
       <c r="W279" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="280" spans="1:23" x14ac:dyDescent="0.25">
@@ -13147,7 +13147,7 @@
       <c r="U280" s="3"/>
       <c r="V280" s="3"/>
       <c r="W280" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="281" spans="1:23" x14ac:dyDescent="0.25">
@@ -13190,7 +13190,7 @@
       <c r="U281" s="3"/>
       <c r="V281" s="3"/>
       <c r="W281" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="282" spans="1:23" x14ac:dyDescent="0.25">
@@ -13239,7 +13239,7 @@
       <c r="U282" s="3"/>
       <c r="V282" s="3"/>
       <c r="W282" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="283" spans="1:23" x14ac:dyDescent="0.25">
@@ -13286,7 +13286,7 @@
       <c r="U283" s="3"/>
       <c r="V283" s="3"/>
       <c r="W283" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="284" spans="1:23" x14ac:dyDescent="0.25">
